--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_12_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940267</v>
+        <v>6734834.566101131</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940267</v>
+        <v>6734834.566101131</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18998.05640235765</v>
+        <v>1146088.991920079</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18998.05640235765</v>
+        <v>1146088.991920079</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342439143.7056</v>
+        <v>54121949.78554672</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11872.29837626769</v>
+        <v>1253914.97407566</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22827.35442291209</v>
+        <v>2355869.88436668</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33782.41046955646</v>
+        <v>3457824.794657701</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45310.52416725106</v>
+        <v>4523118.070755333</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56838.63786494565</v>
+        <v>5588411.346852964</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68366.75156264022</v>
+        <v>6653704.622950593</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79894.86526033477</v>
+        <v>7718997.899048219</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91422.97895802933</v>
+        <v>8784291.175145848</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>102755.5119068132</v>
+        <v>9850873.535589229</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114109.4266737763</v>
+        <v>10921710.87785118</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125463.3414407388</v>
+        <v>11992548.22011309</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>136817.2562077014</v>
+        <v>13063385.56237501</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>148171.1709746667</v>
+        <v>14134222.90463676</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>159525.0857416324</v>
+        <v>15205060.24689834</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170879.0005085996</v>
+        <v>16275897.58915974</v>
       </c>
     </row>
   </sheetData>
